--- a/biology/Botanique/Jardin_à_la_Faulx/Jardin_à_la_Faulx.xlsx
+++ b/biology/Botanique/Jardin_à_la_Faulx/Jardin_à_la_Faulx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_%C3%A0_la_Faulx</t>
+          <t>Jardin_à_la_Faulx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin à la Faulx ou jardin de Landon est un jardin privé ouvert au public, situé à Dole en Franche-Comté. Fondé par Gisèle et Gérard Bésana en 1984, c'est un jardin conçu sur le modèle anglais et classé dans la liste des jardins remarquables de France.
 Sa richesse en végétaux, plus de 1 200 espèces et variétés rares ou méconnues pour la plupart, sont associées pour créer un espace plein de nuances subtiles et de sérénité. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_%C3%A0_la_Faulx</t>
+          <t>Jardin_à_la_Faulx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ce jardin à l'anglaise contemporain de collection est créé en
 1984 sur un terrain de 8 300 m2 sur le lieu dit « à la Faulx ».
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_%C3%A0_la_Faulx</t>
+          <t>Jardin_à_la_Faulx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1999 : Lauréat du prix Bonpland de la Société nationale d'horticulture.
 Label « Jardin remarquable » du Ministère de la Culture et de la Communication.
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_%C3%A0_la_Faulx</t>
+          <t>Jardin_à_la_Faulx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Tourisme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est ouvert au public le dernier week-end de mai et les trois premiers de juin pour ses arbres et arbustes à fleurs, ses roses et ses vivaces, et deux week-ends en octobre pour la grande variété  d’arbres et arbustes aux couleurs superbes d’automne, des écorces, des baies, et  des graminées mêlées aux dernières vivaces. Il est également ouvert toute l’année pour les groupes sur rendez-vous. Des visites guidées et commentées sont assurées par la propriétaire Gisèle Bésana, passionnée de botanique.
 Adresse : 103 Avenue de Landon - 39100 Dole
